--- a/controllers/exports/products.xlsx
+++ b/controllers/exports/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>fkfkjf</v>
+        <v>T-Shirt For Men</v>
       </c>
       <c r="C2" t="str">
         <v>Daily Use</v>
@@ -439,18 +439,110 @@
         <v>767</v>
       </c>
       <c r="E2" t="str">
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="F2" t="str">
         <v>Active</v>
       </c>
       <c r="G2" t="str">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Sample Product 1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Electronics</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Active</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Sample Product 2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Furniture</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Active</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Product C</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Physical</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Active</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Edit</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Product D</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Physical</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Active</v>
+      </c>
+      <c r="G6" t="str">
         <v>Edit</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>